--- a/run_log/run_results/train_history/training_history_run_6.xlsx
+++ b/run_log/run_results/train_history/training_history_run_6.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0531330481171608</v>
+        <v>0.1122238263487816</v>
       </c>
       <c r="B2">
-        <v>0.9900200366973877</v>
+        <v>0.9629124402999878</v>
       </c>
       <c r="C2">
-        <v>0.1281047016382217</v>
+        <v>0.01426568906754255</v>
       </c>
       <c r="D2">
-        <v>0.9523463845252991</v>
+        <v>0.9982606768608093</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.008272686973214149</v>
+        <v>0.03388161212205887</v>
       </c>
       <c r="B3">
-        <v>0.9980978965759277</v>
+        <v>0.9894838333129883</v>
       </c>
       <c r="C3">
-        <v>0.07834430038928986</v>
+        <v>0.009175782091915607</v>
       </c>
       <c r="D3">
-        <v>0.9746551513671875</v>
+        <v>0.9986085295677185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003310938132926822</v>
+        <v>0.02503669448196888</v>
       </c>
       <c r="B4">
-        <v>0.9988389611244202</v>
+        <v>0.9899855256080627</v>
       </c>
       <c r="C4">
-        <v>0.04948529601097107</v>
+        <v>0.003753812052309513</v>
       </c>
       <c r="D4">
-        <v>0.9819154143333435</v>
+        <v>0.9989563822746277</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001589014544151723</v>
+        <v>0.02060467004776001</v>
       </c>
       <c r="B5">
-        <v>0.999456524848938</v>
+        <v>0.9903668761253357</v>
       </c>
       <c r="C5">
-        <v>0.002186105353757739</v>
+        <v>0.002884893910959363</v>
       </c>
       <c r="D5">
-        <v>0.9996039867401123</v>
+        <v>0.9989563822746277</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0005413565086200833</v>
+        <v>0.02033344842493534</v>
       </c>
       <c r="B6">
-        <v>0.9997776746749878</v>
+        <v>0.9899855256080627</v>
       </c>
       <c r="C6">
-        <v>0.0006514400010928512</v>
+        <v>0.002187391277402639</v>
       </c>
       <c r="D6">
-        <v>0.9998679757118225</v>
+        <v>0.9991883039474487</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0009673419408500195</v>
+        <v>0.01602194644510746</v>
       </c>
       <c r="B7">
-        <v>0.9996788501739502</v>
+        <v>0.9932166934013367</v>
       </c>
       <c r="C7">
-        <v>0.0143203055486083</v>
+        <v>0.001139729516580701</v>
       </c>
       <c r="D7">
-        <v>0.9968978762626648</v>
+        <v>0.9990723729133606</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0004264623858034611</v>
+        <v>0.01216172147542238</v>
       </c>
       <c r="B8">
-        <v>0.9998517632484436</v>
+        <v>0.9954643845558167</v>
       </c>
       <c r="C8">
-        <v>0.001230575842782855</v>
+        <v>0.0006952740950509906</v>
       </c>
       <c r="D8">
-        <v>0.9995380043983459</v>
+        <v>0.9995361566543579</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0005893797497265041</v>
+        <v>0.01009280420839787</v>
       </c>
       <c r="B9">
-        <v>0.9998270869255066</v>
+        <v>0.9962671399116516</v>
       </c>
       <c r="C9">
-        <v>0.001811308902688324</v>
+        <v>0.001155905425548553</v>
       </c>
       <c r="D9">
-        <v>0.9996699690818787</v>
+        <v>0.9995361566543579</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0005009338492527604</v>
+        <v>0.01025610044598579</v>
       </c>
       <c r="B10">
-        <v>0.9998764991760254</v>
+        <v>0.9964076280593872</v>
       </c>
       <c r="C10">
-        <v>0.0007575442432425916</v>
+        <v>0.0005122976726852357</v>
       </c>
       <c r="D10">
-        <v>0.9998679757118225</v>
+        <v>0.999768078327179</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0009820203995332122</v>
+        <v>0.01098364219069481</v>
       </c>
       <c r="B11">
-        <v>0.9997529983520508</v>
+        <v>0.9956450462341309</v>
       </c>
       <c r="C11">
-        <v>0.0007092988817021251</v>
+        <v>0.0003453810350038111</v>
       </c>
       <c r="D11">
-        <v>0.9998019933700562</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0005150609649717808</v>
+        <v>0.010852943174541</v>
       </c>
       <c r="B12">
-        <v>0.9998270869255066</v>
+        <v>0.9959259629249573</v>
       </c>
       <c r="C12">
-        <v>0.0003547563392203301</v>
+        <v>0.0003522520419210196</v>
       </c>
       <c r="D12">
-        <v>0.9998679757118225</v>
+        <v>0.999768078327179</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0001959604269359261</v>
+        <v>0.01004441268742085</v>
       </c>
       <c r="B13">
-        <v>0.9999011754989624</v>
+        <v>0.9962671399116516</v>
       </c>
       <c r="C13">
-        <v>0.05000265315175056</v>
+        <v>0.0005051796906627715</v>
       </c>
       <c r="D13">
-        <v>0.9786812663078308</v>
+        <v>0.999768078327179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.00042221017065458</v>
+        <v>0.01015487499535084</v>
       </c>
       <c r="B14">
-        <v>0.9998764991760254</v>
+        <v>0.9959460496902466</v>
       </c>
       <c r="C14">
-        <v>0.000226839940296486</v>
+        <v>0.0003993684949818999</v>
       </c>
       <c r="D14">
-        <v>0.9998679757118225</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0002479383838362992</v>
+        <v>0.0102023659273982</v>
       </c>
       <c r="B15">
-        <v>0.9999259114265442</v>
+        <v>0.9958858489990234</v>
       </c>
       <c r="C15">
-        <v>0.0001817682787077501</v>
+        <v>0.0001680965506238863</v>
       </c>
       <c r="D15">
-        <v>0.9998679757118225</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0004763275501318276</v>
+        <v>0.01070388313382864</v>
       </c>
       <c r="B16">
-        <v>0.9998764991760254</v>
+        <v>0.9957854747772217</v>
       </c>
       <c r="C16">
-        <v>0.0002961737918667495</v>
+        <v>0.001187594141811132</v>
       </c>
       <c r="D16">
-        <v>0.9999340176582336</v>
+        <v>0.9996521472930908</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001638374524191022</v>
+        <v>0.01119144540280104</v>
       </c>
       <c r="B17">
-        <v>0.9999505877494812</v>
+        <v>0.9957252740859985</v>
       </c>
       <c r="C17">
-        <v>0.0002974772069137543</v>
+        <v>0.0002615421544760466</v>
       </c>
       <c r="D17">
-        <v>0.9999340176582336</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0006884242757223547</v>
+        <v>0.0108451135456562</v>
       </c>
       <c r="B18">
-        <v>0.9998270869255066</v>
+        <v>0.9957252740859985</v>
       </c>
       <c r="C18">
-        <v>0.0003681916568893939</v>
+        <v>0.0004194485954940319</v>
       </c>
       <c r="D18">
-        <v>0.9999340176582336</v>
+        <v>0.999768078327179</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3.00024312309688E-05</v>
+        <v>0.00960271991789341</v>
       </c>
       <c r="B19">
-        <v>0.999975323677063</v>
+        <v>0.9961869120597839</v>
       </c>
       <c r="C19">
-        <v>0.0003197688492946327</v>
+        <v>0.0002652259427122772</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0005929747712798417</v>
+        <v>0.009786729700863361</v>
       </c>
       <c r="B20">
-        <v>0.9998270869255066</v>
+        <v>0.9962872266769409</v>
       </c>
       <c r="C20">
-        <v>0.0002848663716576993</v>
+        <v>0.0001897358597489074</v>
       </c>
       <c r="D20">
-        <v>0.9999340176582336</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>8.816225999908056E-06</v>
+        <v>0.009559962898492813</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9962872266769409</v>
       </c>
       <c r="C21">
-        <v>0.0002269466058351099</v>
+        <v>0.000239111774135381</v>
       </c>
       <c r="D21">
-        <v>0.9999340176582336</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>2.633931399032008E-05</v>
+        <v>0.009558824822306633</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9963675141334534</v>
       </c>
       <c r="C22">
-        <v>0.0002664188505150378</v>
+        <v>0.0001472172443754971</v>
       </c>
       <c r="D22">
-        <v>0.9999340176582336</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0003498672449495643</v>
+        <v>0.009529390372335911</v>
       </c>
       <c r="B23">
-        <v>0.9998517632484436</v>
+        <v>0.9961467385292053</v>
       </c>
       <c r="C23">
-        <v>0.0004899095511063933</v>
+        <v>0.001138524268753827</v>
       </c>
       <c r="D23">
-        <v>0.9998679757118225</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.000122283076052554</v>
+        <v>0.01111293770372868</v>
       </c>
       <c r="B24">
-        <v>0.9999505877494812</v>
+        <v>0.9959661364555359</v>
       </c>
       <c r="C24">
-        <v>0.0008144305902533233</v>
+        <v>7.986863056430593E-05</v>
       </c>
       <c r="D24">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>8.097768295556307E-05</v>
+        <v>0.01017675641924143</v>
       </c>
       <c r="B25">
-        <v>0.999975323677063</v>
+        <v>0.9960865378379822</v>
       </c>
       <c r="C25">
-        <v>0.0002079543191939592</v>
+        <v>6.402580766007304E-05</v>
       </c>
       <c r="D25">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>4.079399332113098E-06</v>
+        <v>0.009987573139369488</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9959460496902466</v>
       </c>
       <c r="C26">
-        <v>0.0004483954107854515</v>
+        <v>0.0001041729483404197</v>
       </c>
       <c r="D26">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>4.002029527327977E-06</v>
+        <v>0.009497462771832943</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.9962069392204285</v>
       </c>
       <c r="C27">
-        <v>0.0004514436004683375</v>
+        <v>4.726613769889809E-05</v>
       </c>
       <c r="D27">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>6.848432008155214E-07</v>
+        <v>0.009835576638579369</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.996026337146759</v>
       </c>
       <c r="C28">
-        <v>0.0003527466324158013</v>
+        <v>3.178512997692451E-05</v>
       </c>
       <c r="D28">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0003939011658076197</v>
+        <v>0.009828174486756325</v>
       </c>
       <c r="B29">
-        <v>0.9999011754989624</v>
+        <v>0.9962069392204285</v>
       </c>
       <c r="C29">
-        <v>0.001633264240808785</v>
+        <v>3.441358057898469E-05</v>
       </c>
       <c r="D29">
-        <v>0.9998019933700562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0005425678100436926</v>
+        <v>0.01051153335720301</v>
       </c>
       <c r="B30">
-        <v>0.999975323677063</v>
+        <v>0.9959861636161804</v>
       </c>
       <c r="C30">
-        <v>0.0003171967691741884</v>
+        <v>4.798976078745909E-05</v>
       </c>
       <c r="D30">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0003486884525045753</v>
+        <v>0.01000656839460135</v>
       </c>
       <c r="B31">
-        <v>0.9999259114265442</v>
+        <v>0.9959661364555359</v>
       </c>
       <c r="C31">
-        <v>0.0006420412682928145</v>
+        <v>5.6865163060138E-05</v>
       </c>
       <c r="D31">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.000102312071248889</v>
+        <v>0.01003664825111628</v>
       </c>
       <c r="B32">
-        <v>0.9999505877494812</v>
+        <v>0.9959059357643127</v>
       </c>
       <c r="C32">
-        <v>0.0007604811107739806</v>
+        <v>2.886227048293222E-05</v>
       </c>
       <c r="D32">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0008149640052579343</v>
+        <v>0.009769693948328495</v>
       </c>
       <c r="B33">
-        <v>0.9998517632484436</v>
+        <v>0.9960664510726929</v>
       </c>
       <c r="C33">
-        <v>0.0005953693762421608</v>
+        <v>2.760546522040386E-05</v>
       </c>
       <c r="D33">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0002356965705985203</v>
+        <v>0.009829587303102016</v>
       </c>
       <c r="B34">
-        <v>0.9999259114265442</v>
+        <v>0.9959861636161804</v>
       </c>
       <c r="C34">
-        <v>0.0007021836354397237</v>
+        <v>1.194068499899004E-05</v>
       </c>
       <c r="D34">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.000221281370613724</v>
+        <v>0.009488164447247982</v>
       </c>
       <c r="B35">
-        <v>0.9999505877494812</v>
+        <v>0.9962471127510071</v>
       </c>
       <c r="C35">
-        <v>0.0006276402273215353</v>
+        <v>1.79078706423752E-05</v>
       </c>
       <c r="D35">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>5.739035714213969E-06</v>
+        <v>0.009228608570992947</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9964277148246765</v>
       </c>
       <c r="C36">
-        <v>0.0006314486381597817</v>
+        <v>3.025570913450792E-05</v>
       </c>
       <c r="D36">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0001196146986330859</v>
+        <v>0.009703014045953751</v>
       </c>
       <c r="B37">
-        <v>0.999975323677063</v>
+        <v>0.9961668252944946</v>
       </c>
       <c r="C37">
-        <v>0.01843729428946972</v>
+        <v>0.0002504869480617344</v>
       </c>
       <c r="D37">
-        <v>0.9896376729011536</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.00027303776005283</v>
+        <v>0.009812811389565468</v>
       </c>
       <c r="B38">
-        <v>0.9999259114265442</v>
+        <v>0.9962069392204285</v>
       </c>
       <c r="C38">
-        <v>0.0003404283779673278</v>
+        <v>4.119776713196188E-05</v>
       </c>
       <c r="D38">
-        <v>0.9998679757118225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2.035507168329787E-05</v>
+        <v>0.01000701449811459</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9964478015899658</v>
       </c>
       <c r="C39">
-        <v>0.0002462721895426512</v>
+        <v>5.411657912191004E-05</v>
       </c>
       <c r="D39">
-        <v>0.9998679757118225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3.040618685190566E-05</v>
+        <v>0.01028370950371027</v>
       </c>
       <c r="B40">
-        <v>0.999975323677063</v>
+        <v>0.9963876008987427</v>
       </c>
       <c r="C40">
-        <v>0.0002446233702357858</v>
+        <v>4.741046723211184E-05</v>
       </c>
       <c r="D40">
-        <v>0.9998679757118225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>6.219609349500388E-05</v>
+        <v>0.00995064340531826</v>
       </c>
       <c r="B41">
-        <v>0.999975323677063</v>
+        <v>0.996126651763916</v>
       </c>
       <c r="C41">
-        <v>0.0005310641136020422</v>
+        <v>8.34599559311755E-05</v>
       </c>
       <c r="D41">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0004668878973461688</v>
+        <v>0.009548894129693508</v>
       </c>
       <c r="B42">
-        <v>0.9998517632484436</v>
+        <v>0.9962671399116516</v>
       </c>
       <c r="C42">
-        <v>0.0005342416698113084</v>
+        <v>9.57400188781321E-05</v>
       </c>
       <c r="D42">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002851470198947936</v>
+        <v>0.01061257533729076</v>
       </c>
       <c r="B43">
-        <v>0.9999259114265442</v>
+        <v>0.9956249594688416</v>
       </c>
       <c r="C43">
-        <v>0.0006932989927008748</v>
+        <v>0.0001257478288607672</v>
       </c>
       <c r="D43">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.9927101675421E-06</v>
+        <v>0.00897060614079237</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9966284036636353</v>
       </c>
       <c r="C44">
-        <v>0.0005691389087587595</v>
+        <v>0.0003120446635875851</v>
       </c>
       <c r="D44">
-        <v>0.9999340176582336</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>8.648689254187047E-05</v>
+        <v>0.009908711537718773</v>
       </c>
       <c r="B45">
-        <v>0.9999505877494812</v>
+        <v>0.996026337146759</v>
       </c>
       <c r="C45">
-        <v>0.05163807794451714</v>
+        <v>0.00036870181793347</v>
       </c>
       <c r="D45">
-        <v>0.9805293083190918</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0002948548062704504</v>
+        <v>0.009123586118221283</v>
       </c>
       <c r="B46">
-        <v>0.9999259114265442</v>
+        <v>0.9964478015899658</v>
       </c>
       <c r="C46">
-        <v>0.0006519888993352652</v>
+        <v>5.266796870273538E-05</v>
       </c>
       <c r="D46">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0007307782652787864</v>
+        <v>0.009714526124298573</v>
       </c>
       <c r="B47">
-        <v>0.9999011754989624</v>
+        <v>0.9960865378379822</v>
       </c>
       <c r="C47">
-        <v>0.0006906805210746825</v>
+        <v>7.479038322344422E-05</v>
       </c>
       <c r="D47">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.000192406412679702</v>
+        <v>0.009951287880539894</v>
       </c>
       <c r="B48">
-        <v>0.9999505877494812</v>
+        <v>0.9959661364555359</v>
       </c>
       <c r="C48">
-        <v>0.0007566701387986541</v>
+        <v>0.0005127583863213658</v>
       </c>
       <c r="D48">
-        <v>0.9999340176582336</v>
+        <v>0.9998840689659119</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>7.383296747320856E-07</v>
+        <v>0.008780322968959808</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9966886043548584</v>
       </c>
       <c r="C49">
-        <v>0.0007366479258053005</v>
+        <v>1.580136631673668E-05</v>
       </c>
       <c r="D49">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>1.159239886305841E-07</v>
+        <v>0.01017113029956818</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9959259629249573</v>
       </c>
       <c r="C50">
-        <v>0.0007350685773417354</v>
+        <v>1.238000822922913E-05</v>
       </c>
       <c r="D50">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.477781461289851E-05</v>
+        <v>0.009123872965574265</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9963675141334534</v>
       </c>
       <c r="C51">
-        <v>0.0007254828815348446</v>
+        <v>1.171946132672019E-05</v>
       </c>
       <c r="D51">
-        <v>0.9999340176582336</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_6.xlsx
+++ b/run_log/run_results/train_history/training_history_run_6.xlsx
@@ -395,321 +395,321 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1122238263487816</v>
+        <v>0.07324766367673874</v>
       </c>
       <c r="B2">
-        <v>0.9629124402999878</v>
+        <v>0.979211688041687</v>
       </c>
       <c r="C2">
-        <v>0.01426568906754255</v>
+        <v>0.01092724315822124</v>
       </c>
       <c r="D2">
-        <v>0.9982606768608093</v>
+        <v>0.9984169006347656</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03388161212205887</v>
+        <v>0.01145558338612318</v>
       </c>
       <c r="B3">
-        <v>0.9894838333129883</v>
+        <v>0.9981393218040466</v>
       </c>
       <c r="C3">
-        <v>0.009175782091915607</v>
+        <v>0.00556598138064146</v>
       </c>
       <c r="D3">
-        <v>0.9986085295677185</v>
+        <v>0.9987184405326843</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.02503669448196888</v>
+        <v>0.006082460749894381</v>
       </c>
       <c r="B4">
-        <v>0.9899855256080627</v>
+        <v>0.9985243082046509</v>
       </c>
       <c r="C4">
-        <v>0.003753812052309513</v>
+        <v>0.002481367439031601</v>
       </c>
       <c r="D4">
-        <v>0.9989563822746277</v>
+        <v>0.9992461204528809</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.02060467004776001</v>
+        <v>0.003369377693161368</v>
       </c>
       <c r="B5">
-        <v>0.9903668761253357</v>
+        <v>0.9992728233337402</v>
       </c>
       <c r="C5">
-        <v>0.002884893910959363</v>
+        <v>0.0007478162297047675</v>
       </c>
       <c r="D5">
-        <v>0.9989563822746277</v>
+        <v>0.9998492002487183</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.02033344842493534</v>
+        <v>0.003114670515060425</v>
       </c>
       <c r="B6">
-        <v>0.9899855256080627</v>
+        <v>0.999315619468689</v>
       </c>
       <c r="C6">
-        <v>0.002187391277402639</v>
+        <v>0.001410352764651179</v>
       </c>
       <c r="D6">
-        <v>0.9991883039474487</v>
+        <v>0.9998492002487183</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01602194644510746</v>
+        <v>0.001158522441983223</v>
       </c>
       <c r="B7">
-        <v>0.9932166934013367</v>
+        <v>0.9997219443321228</v>
       </c>
       <c r="C7">
-        <v>0.001139729516580701</v>
+        <v>5.470982796396129E-05</v>
       </c>
       <c r="D7">
-        <v>0.9990723729133606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01216172147542238</v>
+        <v>0.001284919213503599</v>
       </c>
       <c r="B8">
-        <v>0.9954643845558167</v>
+        <v>0.9995936155319214</v>
       </c>
       <c r="C8">
-        <v>0.0006952740950509906</v>
+        <v>7.560154335806146E-05</v>
       </c>
       <c r="D8">
-        <v>0.9995361566543579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01009280420839787</v>
+        <v>0.0005103262374177575</v>
       </c>
       <c r="B9">
-        <v>0.9962671399116516</v>
+        <v>0.9998930692672729</v>
       </c>
       <c r="C9">
-        <v>0.001155905425548553</v>
+        <v>1.219735440827208E-05</v>
       </c>
       <c r="D9">
-        <v>0.9995361566543579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01025610044598579</v>
+        <v>0.001724665984511375</v>
       </c>
       <c r="B10">
-        <v>0.9964076280593872</v>
+        <v>0.9996150135993958</v>
       </c>
       <c r="C10">
-        <v>0.0005122976726852357</v>
+        <v>2.891153781092726E-05</v>
       </c>
       <c r="D10">
-        <v>0.999768078327179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01098364219069481</v>
+        <v>0.001044031581841409</v>
       </c>
       <c r="B11">
-        <v>0.9956450462341309</v>
+        <v>0.9997861385345459</v>
       </c>
       <c r="C11">
-        <v>0.0003453810350038111</v>
+        <v>0.001312674605287611</v>
       </c>
       <c r="D11">
-        <v>0.9998840689659119</v>
+        <v>0.9998492002487183</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.010852943174541</v>
+        <v>0.0007520049693994224</v>
       </c>
       <c r="B12">
-        <v>0.9959259629249573</v>
+        <v>0.9997006058692932</v>
       </c>
       <c r="C12">
-        <v>0.0003522520419210196</v>
+        <v>2.332657459191978E-05</v>
       </c>
       <c r="D12">
-        <v>0.999768078327179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01004441268742085</v>
+        <v>0.0005975269014015794</v>
       </c>
       <c r="B13">
-        <v>0.9962671399116516</v>
+        <v>0.9998502731323242</v>
       </c>
       <c r="C13">
-        <v>0.0005051796906627715</v>
+        <v>8.368455382878892E-06</v>
       </c>
       <c r="D13">
-        <v>0.999768078327179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.01015487499535084</v>
+        <v>0.0009217304759658873</v>
       </c>
       <c r="B14">
-        <v>0.9959460496902466</v>
+        <v>0.9997219443321228</v>
       </c>
       <c r="C14">
-        <v>0.0003993684949818999</v>
+        <v>4.891554635833018E-05</v>
       </c>
       <c r="D14">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0102023659273982</v>
+        <v>0.0004338714061304927</v>
       </c>
       <c r="B15">
-        <v>0.9958858489990234</v>
+        <v>0.9998930692672729</v>
       </c>
       <c r="C15">
-        <v>0.0001680965506238863</v>
+        <v>5.277190211927518E-06</v>
       </c>
       <c r="D15">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.01070388313382864</v>
+        <v>0.0003039418661501259</v>
       </c>
       <c r="B16">
-        <v>0.9957854747772217</v>
+        <v>0.9999358654022217</v>
       </c>
       <c r="C16">
-        <v>0.001187594141811132</v>
+        <v>1.448734792575124E-06</v>
       </c>
       <c r="D16">
-        <v>0.9996521472930908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.01119144540280104</v>
+        <v>0.0007184931891970336</v>
       </c>
       <c r="B17">
-        <v>0.9957252740859985</v>
+        <v>0.9997647404670715</v>
       </c>
       <c r="C17">
-        <v>0.0002615421544760466</v>
+        <v>1.811787842598278E-05</v>
       </c>
       <c r="D17">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0108451135456562</v>
+        <v>0.0008103522704914212</v>
       </c>
       <c r="B18">
-        <v>0.9957252740859985</v>
+        <v>0.9998502731323242</v>
       </c>
       <c r="C18">
-        <v>0.0004194485954940319</v>
+        <v>2.473867880325997E-06</v>
       </c>
       <c r="D18">
-        <v>0.999768078327179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.00960271991789341</v>
+        <v>0.0007054029265418649</v>
       </c>
       <c r="B19">
-        <v>0.9961869120597839</v>
+        <v>0.9998075366020203</v>
       </c>
       <c r="C19">
-        <v>0.0002652259427122772</v>
+        <v>3.653948851933819E-06</v>
       </c>
       <c r="D19">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.009786729700863361</v>
+        <v>0.0001667013420956209</v>
       </c>
       <c r="B20">
-        <v>0.9962872266769409</v>
+        <v>0.9999358654022217</v>
       </c>
       <c r="C20">
-        <v>0.0001897358597489074</v>
+        <v>1.74530583763044E-07</v>
       </c>
       <c r="D20">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.009559962898492813</v>
+        <v>0.0003273676557000726</v>
       </c>
       <c r="B21">
-        <v>0.9962872266769409</v>
+        <v>0.9999358654022217</v>
       </c>
       <c r="C21">
-        <v>0.000239111774135381</v>
+        <v>5.579222488449886E-05</v>
       </c>
       <c r="D21">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.009558824822306633</v>
+        <v>0.0005812101298943162</v>
       </c>
       <c r="B22">
-        <v>0.9963675141334534</v>
+        <v>0.9998716711997986</v>
       </c>
       <c r="C22">
-        <v>0.0001472172443754971</v>
+        <v>6.895519163663266E-06</v>
       </c>
       <c r="D22">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.009529390372335911</v>
+        <v>0.0002798312343657017</v>
       </c>
       <c r="B23">
-        <v>0.9961467385292053</v>
+        <v>0.9999786019325256</v>
       </c>
       <c r="C23">
-        <v>0.001138524268753827</v>
+        <v>1.464009073970374E-07</v>
       </c>
       <c r="D23">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.01111293770372868</v>
+        <v>0.0003110703255515546</v>
       </c>
       <c r="B24">
-        <v>0.9959661364555359</v>
+        <v>0.9999572038650513</v>
       </c>
       <c r="C24">
-        <v>7.986863056430593E-05</v>
+        <v>7.226390152936801E-08</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.01017675641924143</v>
+        <v>0.0002898909151554108</v>
       </c>
       <c r="B25">
-        <v>0.9960865378379822</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C25">
-        <v>6.402580766007304E-05</v>
+        <v>2.728988590661174E-07</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.009987573139369488</v>
+        <v>0.001501838560216129</v>
       </c>
       <c r="B26">
-        <v>0.9959460496902466</v>
+        <v>0.9997861385345459</v>
       </c>
       <c r="C26">
-        <v>0.0001041729483404197</v>
+        <v>9.229562181189976E-08</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.009497462771832943</v>
+        <v>0.0004498705384321511</v>
       </c>
       <c r="B27">
-        <v>0.9962069392204285</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C27">
-        <v>4.726613769889809E-05</v>
+        <v>5.370112887703726E-08</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.009835576638579369</v>
+        <v>0.0002218554873252288</v>
       </c>
       <c r="B28">
-        <v>0.996026337146759</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C28">
-        <v>3.178512997692451E-05</v>
+        <v>6.460485906245594E-07</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.009828174486756325</v>
+        <v>0.000246458948822692</v>
       </c>
       <c r="B29">
-        <v>0.9962069392204285</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C29">
-        <v>3.441358057898469E-05</v>
+        <v>2.656297048986289E-08</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.01051153335720301</v>
+        <v>0.0001764651970006526</v>
       </c>
       <c r="B30">
-        <v>0.9959861636161804</v>
+        <v>0.9999786019325256</v>
       </c>
       <c r="C30">
-        <v>4.798976078745909E-05</v>
+        <v>8.321621614015839E-09</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.01000656839460135</v>
+        <v>2.502496317902114E-05</v>
       </c>
       <c r="B31">
-        <v>0.9959661364555359</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>5.6865163060138E-05</v>
+        <v>1.851984876566348E-08</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.01003664825111628</v>
+        <v>0.0004969422589056194</v>
       </c>
       <c r="B32">
-        <v>0.9959059357643127</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C32">
-        <v>2.886227048293222E-05</v>
+        <v>3.800738923587232E-08</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.009769693948328495</v>
+        <v>0.0001198485551867634</v>
       </c>
       <c r="B33">
-        <v>0.9960664510726929</v>
+        <v>0.9999786019325256</v>
       </c>
       <c r="C33">
-        <v>2.760546522040386E-05</v>
+        <v>1.756835743549345E-08</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.009829587303102016</v>
+        <v>0.0003767807211261243</v>
       </c>
       <c r="B34">
-        <v>0.9959861636161804</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C34">
-        <v>1.194068499899004E-05</v>
+        <v>1.484997937950538E-06</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.009488164447247982</v>
+        <v>0.0003519279998727143</v>
       </c>
       <c r="B35">
-        <v>0.9962471127510071</v>
+        <v>0.9999572038650513</v>
       </c>
       <c r="C35">
-        <v>1.79078706423752E-05</v>
+        <v>5.87728088419226E-09</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.009228608570992947</v>
+        <v>8.539104783267248E-06</v>
       </c>
       <c r="B36">
-        <v>0.9964277148246765</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>3.025570913450792E-05</v>
+        <v>3.432920836488051E-09</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -885,27 +885,27 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.009703014045953751</v>
+        <v>0.0004567454161588103</v>
       </c>
       <c r="B37">
-        <v>0.9961668252944946</v>
+        <v>0.9999144673347473</v>
       </c>
       <c r="C37">
-        <v>0.0002504869480617344</v>
+        <v>2.965626355599937E-10</v>
       </c>
       <c r="D37">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.009812811389565468</v>
+        <v>0.0001002631615847349</v>
       </c>
       <c r="B38">
-        <v>0.9962069392204285</v>
+        <v>0.9999572038650513</v>
       </c>
       <c r="C38">
-        <v>4.119776713196188E-05</v>
+        <v>6.119931672543544E-09</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.01000701449811459</v>
+        <v>0.0001552142784930766</v>
       </c>
       <c r="B39">
-        <v>0.9964478015899658</v>
+        <v>0.9999786019325256</v>
       </c>
       <c r="C39">
-        <v>5.411657912191004E-05</v>
+        <v>1.570708150211431E-07</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -927,13 +927,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.01028370950371027</v>
+        <v>0.0008015321218408644</v>
       </c>
       <c r="B40">
-        <v>0.9963876008987427</v>
+        <v>0.9998075366020203</v>
       </c>
       <c r="C40">
-        <v>4.741046723211184E-05</v>
+        <v>3.325097974737901E-10</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.00995064340531826</v>
+        <v>0.0002073189534712583</v>
       </c>
       <c r="B41">
-        <v>0.996126651763916</v>
+        <v>0.9999572038650513</v>
       </c>
       <c r="C41">
-        <v>8.34599559311755E-05</v>
+        <v>1.662544768521457E-09</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -955,13 +955,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.009548894129693508</v>
+        <v>0.0002846295246854424</v>
       </c>
       <c r="B42">
-        <v>0.9962671399116516</v>
+        <v>0.9999358654022217</v>
       </c>
       <c r="C42">
-        <v>9.57400188781321E-05</v>
+        <v>3.594700093145775E-10</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.01061257533729076</v>
+        <v>0.0005438351072371006</v>
       </c>
       <c r="B43">
-        <v>0.9956249594688416</v>
+        <v>0.9999358654022217</v>
       </c>
       <c r="C43">
-        <v>0.0001257478288607672</v>
+        <v>1.2042224994957E-09</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -983,41 +983,41 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.00897060614079237</v>
+        <v>0.0008651061216369271</v>
       </c>
       <c r="B44">
-        <v>0.9966284036636353</v>
+        <v>0.9999572038650513</v>
       </c>
       <c r="C44">
-        <v>0.0003120446635875851</v>
+        <v>5.931252711199875E-10</v>
       </c>
       <c r="D44">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.009908711537718773</v>
+        <v>0.0001517920318292454</v>
       </c>
       <c r="B45">
-        <v>0.996026337146759</v>
+        <v>0.9999572038650513</v>
       </c>
       <c r="C45">
-        <v>0.00036870181793347</v>
+        <v>1.051449038946828E-09</v>
       </c>
       <c r="D45">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.009123586118221283</v>
+        <v>0.000704568054061383</v>
       </c>
       <c r="B46">
-        <v>0.9964478015899658</v>
+        <v>0.9998930692672729</v>
       </c>
       <c r="C46">
-        <v>5.266796870273538E-05</v>
+        <v>4.403489128890214E-09</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.009714526124298573</v>
+        <v>0.0002770397404674441</v>
       </c>
       <c r="B47">
-        <v>0.9960865378379822</v>
+        <v>0.9999358654022217</v>
       </c>
       <c r="C47">
-        <v>7.479038322344422E-05</v>
+        <v>4.700050126871247E-09</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1039,27 +1039,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.009951287880539894</v>
+        <v>0.0004121703968849033</v>
       </c>
       <c r="B48">
-        <v>0.9959661364555359</v>
+        <v>0.9998930692672729</v>
       </c>
       <c r="C48">
-        <v>0.0005127583863213658</v>
+        <v>2.093908602063266E-09</v>
       </c>
       <c r="D48">
-        <v>0.9998840689659119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.008780322968959808</v>
+        <v>6.362393469316885E-05</v>
       </c>
       <c r="B49">
-        <v>0.9966886043548584</v>
+        <v>0.9999786019325256</v>
       </c>
       <c r="C49">
-        <v>1.580136631673668E-05</v>
+        <v>7.099528187559656E-10</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.01017113029956818</v>
+        <v>1.471396899432875E-05</v>
       </c>
       <c r="B50">
-        <v>0.9959259629249573</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>1.238000822922913E-05</v>
+        <v>2.156820555487826E-10</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1081,13 +1081,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.009123872965574265</v>
+        <v>7.940356226754375E-06</v>
       </c>
       <c r="B51">
-        <v>0.9963675141334534</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>1.171946132672019E-05</v>
+        <v>1.527747789387135E-10</v>
       </c>
       <c r="D51">
         <v>1</v>

--- a/run_log/run_results/train_history/training_history_run_6.xlsx
+++ b/run_log/run_results/train_history/training_history_run_6.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.07324766367673874</v>
+        <v>0.06021292507648468</v>
       </c>
       <c r="B2">
-        <v>0.979211688041687</v>
+        <v>0.984203040599823</v>
       </c>
       <c r="C2">
-        <v>0.01092724315822124</v>
+        <v>0.01489775814116001</v>
       </c>
       <c r="D2">
-        <v>0.9984169006347656</v>
+        <v>0.9976165890693665</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01145558338612318</v>
+        <v>0.009292903356254101</v>
       </c>
       <c r="B3">
-        <v>0.9981393218040466</v>
+        <v>0.9983160495758057</v>
       </c>
       <c r="C3">
-        <v>0.00556598138064146</v>
+        <v>0.01305338460952044</v>
       </c>
       <c r="D3">
-        <v>0.9987184405326843</v>
+        <v>0.9976165890693665</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.006082460749894381</v>
+        <v>0.004931285511702299</v>
       </c>
       <c r="B4">
-        <v>0.9985243082046509</v>
+        <v>0.9985566139221191</v>
       </c>
       <c r="C4">
-        <v>0.002481367439031601</v>
+        <v>0.009170049801468849</v>
       </c>
       <c r="D4">
-        <v>0.9992461204528809</v>
+        <v>0.9983614087104797</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003369377693161368</v>
+        <v>0.002203599316999316</v>
       </c>
       <c r="B5">
-        <v>0.9992728233337402</v>
+        <v>0.9994387030601501</v>
       </c>
       <c r="C5">
-        <v>0.0007478162297047675</v>
+        <v>0.006220538634806871</v>
       </c>
       <c r="D5">
-        <v>0.9998492002487183</v>
+        <v>0.9986593127250671</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.003114670515060425</v>
+        <v>0.001202365849167109</v>
       </c>
       <c r="B6">
-        <v>0.999315619468689</v>
+        <v>0.9997193217277527</v>
       </c>
       <c r="C6">
-        <v>0.001410352764651179</v>
+        <v>0.005590631160885096</v>
       </c>
       <c r="D6">
-        <v>0.9998492002487183</v>
+        <v>0.9988082647323608</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001158522441983223</v>
+        <v>0.001036283327266574</v>
       </c>
       <c r="B7">
-        <v>0.9997219443321228</v>
+        <v>0.9996591806411743</v>
       </c>
       <c r="C7">
-        <v>5.470982796396129E-05</v>
+        <v>0.007719030603766441</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001284919213503599</v>
+        <v>0.00116246216930449</v>
       </c>
       <c r="B8">
-        <v>0.9995936155319214</v>
+        <v>0.999739408493042</v>
       </c>
       <c r="C8">
-        <v>7.560154335806146E-05</v>
+        <v>0.005785822402685881</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.999106228351593</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0005103262374177575</v>
+        <v>0.0006684120162390172</v>
       </c>
       <c r="B9">
-        <v>0.9998930692672729</v>
+        <v>0.9998797178268433</v>
       </c>
       <c r="C9">
-        <v>1.219735440827208E-05</v>
+        <v>0.002921943552792072</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001724665984511375</v>
+        <v>0.0008140974678099155</v>
       </c>
       <c r="B10">
-        <v>0.9996150135993958</v>
+        <v>0.9997594356536865</v>
       </c>
       <c r="C10">
-        <v>2.891153781092726E-05</v>
+        <v>0.00329586723819375</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001044031581841409</v>
+        <v>0.0008376454934477806</v>
       </c>
       <c r="B11">
-        <v>0.9997861385345459</v>
+        <v>0.999739408493042</v>
       </c>
       <c r="C11">
-        <v>0.001312674605287611</v>
+        <v>0.002683518454432487</v>
       </c>
       <c r="D11">
-        <v>0.9998492002487183</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007520049693994224</v>
+        <v>0.0008292519487440586</v>
       </c>
       <c r="B12">
-        <v>0.9997006058692932</v>
+        <v>0.9997193217277527</v>
       </c>
       <c r="C12">
-        <v>2.332657459191978E-05</v>
+        <v>0.005067797843366861</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.999106228351593</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005975269014015794</v>
+        <v>0.0005775628960691392</v>
       </c>
       <c r="B13">
-        <v>0.9998502731323242</v>
+        <v>0.9998396039009094</v>
       </c>
       <c r="C13">
-        <v>8.368455382878892E-06</v>
+        <v>0.00634622061625123</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0009217304759658873</v>
+        <v>0.0004264594463165849</v>
       </c>
       <c r="B14">
-        <v>0.9997219443321228</v>
+        <v>0.9998997449874878</v>
       </c>
       <c r="C14">
-        <v>4.891554635833018E-05</v>
+        <v>0.003960348200052977</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0004338714061304927</v>
+        <v>0.0004744645848404616</v>
       </c>
       <c r="B15">
-        <v>0.9998930692672729</v>
+        <v>0.9998596906661987</v>
       </c>
       <c r="C15">
-        <v>5.277190211927518E-06</v>
+        <v>0.007094657048583031</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.999106228351593</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0003039418661501259</v>
+        <v>0.0003352063067723066</v>
       </c>
       <c r="B16">
-        <v>0.9999358654022217</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C16">
-        <v>1.448734792575124E-06</v>
+        <v>0.002948341425508261</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0007184931891970336</v>
+        <v>0.000135337992105633</v>
       </c>
       <c r="B17">
-        <v>0.9997647404670715</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C17">
-        <v>1.811787842598278E-05</v>
+        <v>0.003680293913930655</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0008103522704914212</v>
+        <v>0.0001632750499993563</v>
       </c>
       <c r="B18">
-        <v>0.9998502731323242</v>
+        <v>0.9999398589134216</v>
       </c>
       <c r="C18">
-        <v>2.473867880325997E-06</v>
+        <v>0.005347238853573799</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0007054029265418649</v>
+        <v>0.0006788230966776609</v>
       </c>
       <c r="B19">
-        <v>0.9998075366020203</v>
+        <v>0.9997594356536865</v>
       </c>
       <c r="C19">
-        <v>3.653948851933819E-06</v>
+        <v>0.01118310820311308</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0001667013420956209</v>
+        <v>0.001153093064203858</v>
       </c>
       <c r="B20">
-        <v>0.9999358654022217</v>
+        <v>0.9998195767402649</v>
       </c>
       <c r="C20">
-        <v>1.74530583763044E-07</v>
+        <v>0.007868650369346142</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003273676557000726</v>
+        <v>0.0005811135051771998</v>
       </c>
       <c r="B21">
-        <v>0.9999358654022217</v>
+        <v>0.9998596906661987</v>
       </c>
       <c r="C21">
-        <v>5.579222488449886E-05</v>
+        <v>0.007795257959514856</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0005812101298943162</v>
+        <v>0.0001576094800839201</v>
       </c>
       <c r="B22">
-        <v>0.9998716711997986</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C22">
-        <v>6.895519163663266E-06</v>
+        <v>0.003422838868573308</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002798312343657017</v>
+        <v>9.76195588009432E-05</v>
       </c>
       <c r="B23">
-        <v>0.9999786019325256</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C23">
-        <v>1.464009073970374E-07</v>
+        <v>0.006421252153813839</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003110703255515546</v>
+        <v>0.0007138215005397797</v>
       </c>
       <c r="B24">
-        <v>0.9999572038650513</v>
+        <v>0.9998596906661987</v>
       </c>
       <c r="C24">
-        <v>7.226390152936801E-08</v>
+        <v>0.002709664404392242</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0002898909151554108</v>
+        <v>0.0001199529433506541</v>
       </c>
       <c r="B25">
-        <v>0.9999144673347473</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C25">
-        <v>2.728988590661174E-07</v>
+        <v>0.00490808067843318</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.001501838560216129</v>
+        <v>0.0001240165147464722</v>
       </c>
       <c r="B26">
-        <v>0.9997861385345459</v>
+        <v>0.9999598860740662</v>
       </c>
       <c r="C26">
-        <v>9.229562181189976E-08</v>
+        <v>0.004653803538531065</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0004498705384321511</v>
+        <v>0.0002203768526669592</v>
       </c>
       <c r="B27">
-        <v>0.9999144673347473</v>
+        <v>0.9999398589134216</v>
       </c>
       <c r="C27">
-        <v>5.370112887703726E-08</v>
+        <v>0.004867083858698606</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0002218554873252288</v>
+        <v>0.0005846436833962798</v>
       </c>
       <c r="B28">
-        <v>0.9999144673347473</v>
+        <v>0.9998797178268433</v>
       </c>
       <c r="C28">
-        <v>6.460485906245594E-07</v>
+        <v>0.007863040082156658</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.999106228351593</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.000246458948822692</v>
+        <v>0.0006568056414835155</v>
       </c>
       <c r="B29">
-        <v>0.9999144673347473</v>
+        <v>0.9998396039009094</v>
       </c>
       <c r="C29">
-        <v>2.656297048986289E-08</v>
+        <v>0.004291488323360682</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0001764651970006526</v>
+        <v>0.0001989922748180106</v>
       </c>
       <c r="B30">
-        <v>0.9999786019325256</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C30">
-        <v>8.321621614015839E-09</v>
+        <v>0.004492656793445349</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2.502496317902114E-05</v>
+        <v>0.0001075313048204407</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C31">
-        <v>1.851984876566348E-08</v>
+        <v>0.005401885602623224</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0004969422589056194</v>
+        <v>0.0002346182736800984</v>
       </c>
       <c r="B32">
-        <v>0.9999144673347473</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C32">
-        <v>3.800738923587232E-08</v>
+        <v>0.006855674088001251</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001198485551867634</v>
+        <v>0.0001831540430430323</v>
       </c>
       <c r="B33">
-        <v>0.9999786019325256</v>
+        <v>0.9999398589134216</v>
       </c>
       <c r="C33">
-        <v>1.756835743549345E-08</v>
+        <v>0.005513347219675779</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0003767807211261243</v>
+        <v>7.482407090719789E-05</v>
       </c>
       <c r="B34">
-        <v>0.9999144673347473</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C34">
-        <v>1.484997937950538E-06</v>
+        <v>0.006002883426845074</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0003519279998727143</v>
+        <v>0.0002404460683465004</v>
       </c>
       <c r="B35">
-        <v>0.9999572038650513</v>
+        <v>0.9999398589134216</v>
       </c>
       <c r="C35">
-        <v>5.87728088419226E-09</v>
+        <v>0.00524580106139183</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>8.539104783267248E-06</v>
+        <v>0.0002606218622531742</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.9998997449874878</v>
       </c>
       <c r="C36">
-        <v>3.432920836488051E-09</v>
+        <v>0.008635876700282097</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0004567454161588103</v>
+        <v>0.0003517495933920145</v>
       </c>
       <c r="B37">
-        <v>0.9999144673347473</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C37">
-        <v>2.965626355599937E-10</v>
+        <v>0.01050938200205564</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9992551803588867</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001002631615847349</v>
+        <v>0.0006204597884789109</v>
       </c>
       <c r="B38">
-        <v>0.9999572038650513</v>
+        <v>0.9998596906661987</v>
       </c>
       <c r="C38">
-        <v>6.119931672543544E-09</v>
+        <v>0.01137394551187754</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.999106228351593</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001552142784930766</v>
+        <v>0.0001711104705464095</v>
       </c>
       <c r="B39">
-        <v>0.9999786019325256</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C39">
-        <v>1.570708150211431E-07</v>
+        <v>0.004830614197999239</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9995530843734741</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0008015321218408644</v>
+        <v>0.0003749522147700191</v>
       </c>
       <c r="B40">
-        <v>0.9998075366020203</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C40">
-        <v>3.325097974737901E-10</v>
+        <v>0.002559789922088385</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0002073189534712583</v>
+        <v>8.093790529528633E-05</v>
       </c>
       <c r="B41">
-        <v>0.9999572038650513</v>
+        <v>0.9999799728393555</v>
       </c>
       <c r="C41">
-        <v>1.662544768521457E-09</v>
+        <v>0.004765441175550222</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0002846295246854424</v>
+        <v>1.200423321279231E-05</v>
       </c>
       <c r="B42">
-        <v>0.9999358654022217</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>3.594700093145775E-10</v>
+        <v>0.005059763323515654</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0005438351072371006</v>
+        <v>0.00056178227532655</v>
       </c>
       <c r="B43">
-        <v>0.9999358654022217</v>
+        <v>0.9998997449874878</v>
       </c>
       <c r="C43">
-        <v>1.2042224994957E-09</v>
+        <v>0.006432718597352505</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0008651061216369271</v>
+        <v>1.521555077488301E-05</v>
       </c>
       <c r="B44">
-        <v>0.9999572038650513</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>5.931252711199875E-10</v>
+        <v>0.007508097682148218</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001517920318292454</v>
+        <v>0.0001871140120783821</v>
       </c>
       <c r="B45">
-        <v>0.9999572038650513</v>
+        <v>0.9999398589134216</v>
       </c>
       <c r="C45">
-        <v>1.051449038946828E-09</v>
+        <v>0.006027807481586933</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.000704568054061383</v>
+        <v>2.265248622279614E-05</v>
       </c>
       <c r="B46">
-        <v>0.9998930692672729</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>4.403489128890214E-09</v>
+        <v>0.005880823358893394</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0002770397404674441</v>
+        <v>0.0007947962149046361</v>
       </c>
       <c r="B47">
-        <v>0.9999358654022217</v>
+        <v>0.9998797178268433</v>
       </c>
       <c r="C47">
-        <v>4.700050126871247E-09</v>
+        <v>0.006195004098117352</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0004121703968849033</v>
+        <v>0.0001226189051521942</v>
       </c>
       <c r="B48">
-        <v>0.9998930692672729</v>
+        <v>0.9999398589134216</v>
       </c>
       <c r="C48">
-        <v>2.093908602063266E-09</v>
+        <v>0.006707510910928249</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>6.362393469316885E-05</v>
+        <v>0.0003272075846325606</v>
       </c>
       <c r="B49">
-        <v>0.9999786019325256</v>
+        <v>0.9999198317527771</v>
       </c>
       <c r="C49">
-        <v>7.099528187559656E-10</v>
+        <v>0.008327260613441467</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9994041323661804</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>1.471396899432875E-05</v>
+        <v>0.0008234516717493534</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9999598860740662</v>
       </c>
       <c r="C50">
-        <v>2.156820555487826E-10</v>
+        <v>0.005264736711978912</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>7.940356226754375E-06</v>
+        <v>8.670182978676166E-06</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>1.527747789387135E-10</v>
+        <v>0.005727715324610472</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9997020959854126</v>
       </c>
     </row>
   </sheetData>
